--- a/medicine/Enfance/Guillaume_Chauchat/Guillaume_Chauchat.xlsx
+++ b/medicine/Enfance/Guillaume_Chauchat/Guillaume_Chauchat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Chauchat, né le 15 novembre 1980, est un illustrateur et auteur français de bande dessinée.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillaume Chauchat grandit entre la France, la Hongrie et les États-Unis[1].
-Après des études de comptabilité et d'économie[1], Guillaume Chauchat obtient le diplôme des Arts décoratifs de Strasbourg en 2009[2]. Il y participe notamment à la revue Belles Illustrations. Il devient illustrateur pour la presse, pour l'édition jeunesse et auteur de bande dessinée.
-En 2010, il remporte le prix Jeunes Talents d’Angoulême[3] pour Le bleu du mystérieux étui à guitare.
-Il est enseignant en illustration à la Haute École des arts du Rhin[2].
-Il commence sa série de bande dessinée Il se passe des choses[4] en 2013.
-En 2023 est publiée sa bande dessinée jeunesse La Villa nuit. Pour Télérama, « Le talentueux et audacieux Guillaume Chauchat compose un petit album étrange, très graphique et propice aux interprétations diverses, autour des angoisses des enfants confrontés au changement, voire à un déménagement[5] ». La même année, il réalise avec Manuel Zenner l'album jeunesse La Flaque d’eau bleue, l'histoire d'un doudou perdu. Pour la critique de Télérama, « Avec trois seules couleurs, bleu, noir, blanc, et l’épais tracé d’un pinceau aimanté à l’essentiel, Guillaume Chauchat et Manuel Zenner signent un livre majeur, absorbant et inventif. […] La subtilité des émotions évoquées promet mille lectures[6] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Chauchat grandit entre la France, la Hongrie et les États-Unis.
+Après des études de comptabilité et d'économie, Guillaume Chauchat obtient le diplôme des Arts décoratifs de Strasbourg en 2009. Il y participe notamment à la revue Belles Illustrations. Il devient illustrateur pour la presse, pour l'édition jeunesse et auteur de bande dessinée.
+En 2010, il remporte le prix Jeunes Talents d’Angoulême pour Le bleu du mystérieux étui à guitare.
+Il est enseignant en illustration à la Haute École des arts du Rhin.
+Il commence sa série de bande dessinée Il se passe des choses en 2013.
+En 2023 est publiée sa bande dessinée jeunesse La Villa nuit. Pour Télérama, « Le talentueux et audacieux Guillaume Chauchat compose un petit album étrange, très graphique et propice aux interprétations diverses, autour des angoisses des enfants confrontés au changement, voire à un déménagement ». La même année, il réalise avec Manuel Zenner l'album jeunesse La Flaque d’eau bleue, l'histoire d'un doudou perdu. Pour la critique de Télérama, « Avec trois seules couleurs, bleu, noir, blanc, et l’épais tracé d’un pinceau aimanté à l’essentiel, Guillaume Chauchat et Manuel Zenner signent un livre majeur, absorbant et inventif. […] La subtilité des émotions évoquées promet mille lectures ».
 </t>
         </is>
       </c>
@@ -547,22 +561,24 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bande dessinée
 Série Il se passe des choses, Éditions 2024
-J'ai été changé en caoutchouc[7],[8], 2013  (ISBN 978-2-919242-13-9)
-J'ai fini dans un vase [4], 2014  (ISBN 978-2-919242-19-1)
+J'ai été changé en caoutchouc 2013  (ISBN 978-2-919242-13-9)
+J'ai fini dans un vase , 2014  (ISBN 978-2-919242-19-1)
 Je suis tombée du ciel, 2016  (ISBN 978-2-919242-55-9)
 Near Sex Experience, avec Matthieu Chiarra et Baptiste Filippi, 2018
-La villa nuit[5], Biscoto, 2023
+La villa nuit, Biscoto, 2023
 Collectif
 2013 : Vu, lu !, Éditions 2024  (ISBN 978-2-919242-15-3)
 2020 : Diversion-Dix vers d'ion, avec Mael Escot, Pierre Faedi, Zad KoKar, Matthias Martinez, Margaux Meissonnier, Eloise Pardonnet, Luca Retraite, Fabio Viscliosi, Éditions Gargarismes.
 2022 : Un lisou, avec Anne Vaudrey et Manuel Zenner, Éditions Biscotto  (ISBN 978-2-37962-057-7)
 Jeunesse
-2016 : Les Collectionneurs[9], avec Adrien Parlange, Albin Michel Jeunesse  (ISBN 9782226328281)
-2023 : La flaque d'eau bleue[6], avec Manuel Zenner, Éditions La partie  (ISBN 978-2-49276-850-7)
+2016 : Les Collectionneurs, avec Adrien Parlange, Albin Michel Jeunesse  (ISBN 9782226328281)
+2023 : La flaque d'eau bleue, avec Manuel Zenner, Éditions La partie  (ISBN 978-2-49276-850-7)
 Recueils de dessins
 2015 : Fesse, Éditions 2024  (ISBN 978-2-919242-42-9)
 2016 : Lumières, Mauvaise Foi Éditions
@@ -597,9 +613,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lignes[3], Pavillon Jeunes Talents, Festival d'Angoulême 2015, Angoulême.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lignes, Pavillon Jeunes Talents, Festival d'Angoulême 2015, Angoulême.
 Dialogues de dessins 7, avec Jochen Gerner, Festival Central Vapeur, 2017, Strasbourg.</t>
         </is>
       </c>
@@ -628,9 +646,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix jeune talent 2010 au Festival international de la bande dessinée d'Angoulême[3] pour Le bleu du mystérieux étui à guitare.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix jeune talent 2010 au Festival international de la bande dessinée d'Angoulême pour Le bleu du mystérieux étui à guitare.</t>
         </is>
       </c>
     </row>
